--- a/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="29868" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,12 +157,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -619,52 +613,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,83 +667,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -762,10 +756,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1119,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1236,10 +1227,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5">
@@ -1256,10 +1247,10 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5">
@@ -1276,10 +1267,10 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -1294,10 +1285,10 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="5"/>
@@ -1312,10 +1303,10 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
@@ -1330,10 +1321,10 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="5"/>
@@ -1348,10 +1339,10 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1367,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1458,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>26</v>
@@ -1478,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
@@ -1498,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
@@ -1518,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
@@ -1538,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
